--- a/Code/Results/Cases/Case_2_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.54921039674765</v>
+        <v>14.62197818638615</v>
       </c>
       <c r="C2">
-        <v>5.881742563540368</v>
+        <v>6.668666515371771</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.006500726266905</v>
+        <v>14.24885395091472</v>
       </c>
       <c r="F2">
-        <v>29.57284548666933</v>
+        <v>41.08018402194973</v>
       </c>
       <c r="G2">
-        <v>31.09445814470646</v>
+        <v>42.14033072464268</v>
       </c>
       <c r="H2">
-        <v>11.06653699488384</v>
+        <v>17.69607241463209</v>
       </c>
       <c r="I2">
-        <v>17.95782785916323</v>
+        <v>27.92163377542688</v>
       </c>
       <c r="J2">
-        <v>5.596398190334305</v>
+        <v>8.612173447054335</v>
       </c>
       <c r="K2">
-        <v>11.35166313862796</v>
+        <v>11.51466277271392</v>
       </c>
       <c r="L2">
-        <v>8.250040235685775</v>
+        <v>12.38526435680083</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.48028024495809</v>
+        <v>20.79034900346628</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.67769577321206</v>
+        <v>14.42250144070761</v>
       </c>
       <c r="C3">
-        <v>5.682042315714043</v>
+        <v>6.60589082936156</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.808029771518319</v>
+        <v>14.24609221230732</v>
       </c>
       <c r="F3">
-        <v>28.93123862638439</v>
+        <v>41.08447669867266</v>
       </c>
       <c r="G3">
-        <v>30.7133790532101</v>
+        <v>42.20980034299974</v>
       </c>
       <c r="H3">
-        <v>11.10843054763325</v>
+        <v>17.7448965137716</v>
       </c>
       <c r="I3">
-        <v>18.01996877244564</v>
+        <v>28.00444543028237</v>
       </c>
       <c r="J3">
-        <v>5.609343065848705</v>
+        <v>8.615619158639131</v>
       </c>
       <c r="K3">
-        <v>10.60962094128627</v>
+        <v>11.38142939262293</v>
       </c>
       <c r="L3">
-        <v>8.007800737744066</v>
+        <v>12.37054441348269</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.69903309251815</v>
+        <v>20.85428197250905</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.11886699380367</v>
+        <v>14.30165741991432</v>
       </c>
       <c r="C4">
-        <v>5.555887808143114</v>
+        <v>6.566280698436031</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.687568853103635</v>
+        <v>14.24631360354817</v>
       </c>
       <c r="F4">
-        <v>28.55216725118043</v>
+        <v>41.09602000046888</v>
       </c>
       <c r="G4">
-        <v>30.50776283693135</v>
+        <v>42.26325840878285</v>
       </c>
       <c r="H4">
-        <v>11.14093264250358</v>
+        <v>17.77756375042323</v>
       </c>
       <c r="I4">
-        <v>18.07059629080605</v>
+        <v>28.06005358345505</v>
       </c>
       <c r="J4">
-        <v>5.617595098298271</v>
+        <v>8.617893374407734</v>
       </c>
       <c r="K4">
-        <v>10.128261249628</v>
+        <v>11.30115439261113</v>
       </c>
       <c r="L4">
-        <v>7.858904291705255</v>
+        <v>12.36333272182989</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.83624748191779</v>
+        <v>20.89535373743827</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.8853411081812</v>
+        <v>14.25288352610617</v>
       </c>
       <c r="C5">
-        <v>5.503613362335768</v>
+        <v>6.549876193732726</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.638890550770727</v>
+        <v>14.24688756688911</v>
       </c>
       <c r="F5">
-        <v>28.4015495282812</v>
+        <v>41.10296508661078</v>
       </c>
       <c r="G5">
-        <v>30.43094423924264</v>
+        <v>42.28775221370141</v>
       </c>
       <c r="H5">
-        <v>11.15582126491574</v>
+        <v>17.79155184797261</v>
       </c>
       <c r="I5">
-        <v>18.09424327035199</v>
+        <v>28.08391050590268</v>
       </c>
       <c r="J5">
-        <v>5.621036434725172</v>
+        <v>8.618860137065939</v>
       </c>
       <c r="K5">
-        <v>9.925604705216424</v>
+        <v>11.26886304685481</v>
       </c>
       <c r="L5">
-        <v>7.79827106350353</v>
+        <v>12.36085580775575</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.89291750222644</v>
+        <v>20.91254897677234</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.8462197402704</v>
+        <v>14.24481484072886</v>
       </c>
       <c r="C6">
-        <v>5.494881749945564</v>
+        <v>6.547136495154901</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.630834060476458</v>
+        <v>14.24701213569437</v>
       </c>
       <c r="F6">
-        <v>28.37677571201177</v>
+        <v>41.10425368255457</v>
       </c>
       <c r="G6">
-        <v>30.41860450521374</v>
+        <v>42.29198278523762</v>
       </c>
       <c r="H6">
-        <v>11.15839104282043</v>
+        <v>17.79391537817471</v>
       </c>
       <c r="I6">
-        <v>18.09834851935381</v>
+        <v>28.08794413959259</v>
       </c>
       <c r="J6">
-        <v>5.621612671996778</v>
+        <v>8.619023087246601</v>
       </c>
       <c r="K6">
-        <v>9.891560609313842</v>
+        <v>11.26352759266139</v>
       </c>
       <c r="L6">
-        <v>7.788208105062994</v>
+        <v>12.36047248847764</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.90237376890917</v>
+        <v>20.91543194461996</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.11574081185717</v>
+        <v>14.30099765248348</v>
       </c>
       <c r="C7">
-        <v>5.55518628580435</v>
+        <v>6.566060520105771</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.6869106210504</v>
+        <v>14.24631938346064</v>
       </c>
       <c r="F7">
-        <v>28.55012020526204</v>
+        <v>41.09610458948852</v>
       </c>
       <c r="G7">
-        <v>30.50669883539126</v>
+        <v>42.26357778187889</v>
       </c>
       <c r="H7">
-        <v>11.14112685928157</v>
+        <v>17.77774966232123</v>
       </c>
       <c r="I7">
-        <v>18.07090314810484</v>
+        <v>28.06037048467331</v>
       </c>
       <c r="J7">
-        <v>5.617641188484751</v>
+        <v>8.61790625036514</v>
       </c>
       <c r="K7">
-        <v>10.12555449477798</v>
+        <v>11.30071714656846</v>
       </c>
       <c r="L7">
-        <v>7.858086281797211</v>
+        <v>12.3632974437436</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.83700866823451</v>
+        <v>20.89558378159402</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.25372060816219</v>
+        <v>14.55289517472322</v>
       </c>
       <c r="C8">
-        <v>5.813633258418213</v>
+        <v>6.647245532635919</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.937811801339192</v>
+        <v>14.24750485541748</v>
       </c>
       <c r="F8">
-        <v>29.34860353682838</v>
+        <v>41.07981642682634</v>
       </c>
       <c r="G8">
-        <v>30.95708356034105</v>
+        <v>42.16203743164962</v>
       </c>
       <c r="H8">
-        <v>11.07953758811873</v>
+        <v>17.71234870834529</v>
       </c>
       <c r="I8">
-        <v>17.97659188214601</v>
+        <v>27.94919830653723</v>
       </c>
       <c r="J8">
-        <v>5.600799872817651</v>
+        <v>8.613328706453684</v>
       </c>
       <c r="K8">
-        <v>11.10113297959705</v>
+        <v>11.46842824789417</v>
       </c>
       <c r="L8">
-        <v>8.166598063190499</v>
+        <v>12.37981150532107</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.55511990723924</v>
+        <v>20.81201685750911</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.2918333547995</v>
+        <v>15.05719850196868</v>
       </c>
       <c r="C9">
-        <v>6.291558772265013</v>
+        <v>6.797785888345071</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.43845375540845</v>
+        <v>14.26496229142338</v>
       </c>
       <c r="F9">
-        <v>31.02710066985333</v>
+        <v>41.11845519372195</v>
       </c>
       <c r="G9">
-        <v>32.0715471768935</v>
+        <v>42.04892794052617</v>
       </c>
       <c r="H9">
-        <v>11.01538132254941</v>
+        <v>17.60544492264519</v>
       </c>
       <c r="I9">
-        <v>17.89616196027902</v>
+        <v>27.7690211000544</v>
       </c>
       <c r="J9">
-        <v>5.570079318688148</v>
+        <v>8.605603990758533</v>
       </c>
       <c r="K9">
-        <v>12.81139536990986</v>
+        <v>11.8078255885156</v>
       </c>
       <c r="L9">
-        <v>8.76690608917656</v>
+        <v>12.42656185991925</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.02414523977272</v>
+        <v>20.66249414761538</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.76661998111943</v>
+        <v>15.43047608458542</v>
       </c>
       <c r="C10">
-        <v>6.624333203961211</v>
+        <v>6.902838598842028</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.808355335203172</v>
+        <v>14.28690028563671</v>
       </c>
       <c r="F10">
-        <v>32.321746145885</v>
+        <v>41.18967300508471</v>
       </c>
       <c r="G10">
-        <v>33.03840226979388</v>
+        <v>42.01859686508089</v>
       </c>
       <c r="H10">
-        <v>11.00679435120864</v>
+        <v>17.53993127961636</v>
       </c>
       <c r="I10">
-        <v>17.90860583082832</v>
+        <v>27.65977625738174</v>
       </c>
       <c r="J10">
-        <v>5.548754911671161</v>
+        <v>8.60068351583671</v>
       </c>
       <c r="K10">
-        <v>13.94654967850648</v>
+        <v>12.06138552527485</v>
       </c>
       <c r="L10">
-        <v>9.200967714226586</v>
+        <v>12.46948568780927</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.64556688599043</v>
+        <v>20.56129969232529</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.41425233963293</v>
+        <v>15.60015404594304</v>
       </c>
       <c r="C11">
-        <v>6.771672045858904</v>
+        <v>6.949370294570747</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.976471308257635</v>
+        <v>14.29883147062403</v>
       </c>
       <c r="F11">
-        <v>32.92259701672096</v>
+        <v>41.23130482848281</v>
       </c>
       <c r="G11">
-        <v>33.51156076992164</v>
+        <v>42.01630597515596</v>
       </c>
       <c r="H11">
-        <v>11.01216977347406</v>
+        <v>17.51295942821999</v>
       </c>
       <c r="I11">
-        <v>17.93153951259376</v>
+        <v>27.61511472023393</v>
       </c>
       <c r="J11">
-        <v>5.539285470217667</v>
+        <v>8.598607217893555</v>
       </c>
       <c r="K11">
-        <v>14.43717649946362</v>
+        <v>12.17718098229851</v>
       </c>
       <c r="L11">
-        <v>9.396178473903559</v>
+        <v>12.4908312590713</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.47543028874144</v>
+        <v>20.51712503956091</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.65459425762396</v>
+        <v>15.66432847599805</v>
       </c>
       <c r="C12">
-        <v>6.826884590082531</v>
+        <v>6.966805315208561</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.0400639798318</v>
+        <v>14.30362746077517</v>
       </c>
       <c r="F12">
-        <v>33.15172465818621</v>
+        <v>41.24838976016871</v>
       </c>
       <c r="G12">
-        <v>33.69560138170692</v>
+        <v>42.01709507871148</v>
       </c>
       <c r="H12">
-        <v>11.01561808967441</v>
+        <v>17.50315318197936</v>
       </c>
       <c r="I12">
-        <v>17.94285445224643</v>
+        <v>27.59892763583318</v>
       </c>
       <c r="J12">
-        <v>5.535729316668739</v>
+        <v>8.597844139919486</v>
       </c>
       <c r="K12">
-        <v>14.61931036312281</v>
+        <v>12.22105567503185</v>
       </c>
       <c r="L12">
-        <v>9.469724604088569</v>
+        <v>12.4991717338001</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.4112670016763</v>
+        <v>20.50066319465375</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.60304933027546</v>
+        <v>15.65051182000977</v>
       </c>
       <c r="C13">
-        <v>6.815019398039944</v>
+        <v>6.963058696488265</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.02637194087528</v>
+        <v>14.30258224343864</v>
       </c>
       <c r="F13">
-        <v>33.1023085070014</v>
+        <v>41.2446516546607</v>
       </c>
       <c r="G13">
-        <v>33.6557474686272</v>
+        <v>42.01685143519187</v>
       </c>
       <c r="H13">
-        <v>11.01481133181161</v>
+        <v>17.50524700731764</v>
       </c>
       <c r="I13">
-        <v>17.94029822494846</v>
+        <v>27.60238153708353</v>
       </c>
       <c r="J13">
-        <v>5.536493935702121</v>
+        <v>8.598007453972588</v>
       </c>
       <c r="K13">
-        <v>14.58024636226915</v>
+        <v>12.21160595912598</v>
       </c>
       <c r="L13">
-        <v>9.453902614931435</v>
+        <v>12.49736408689625</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.42507457115339</v>
+        <v>20.50419673019097</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.43412329573388</v>
+        <v>15.60543563738419</v>
       </c>
       <c r="C14">
-        <v>6.77622605415345</v>
+        <v>6.950808428930991</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.981704756601188</v>
+        <v>14.29922048605809</v>
       </c>
       <c r="F14">
-        <v>32.94141605784193</v>
+        <v>41.23268401462492</v>
       </c>
       <c r="G14">
-        <v>33.52660399868915</v>
+        <v>42.01633768749965</v>
       </c>
       <c r="H14">
-        <v>11.01242469908915</v>
+        <v>17.51214449533324</v>
       </c>
       <c r="I14">
-        <v>17.93241683213466</v>
+        <v>27.61376845620664</v>
       </c>
       <c r="J14">
-        <v>5.538992329021787</v>
+        <v>8.598543975382146</v>
       </c>
       <c r="K14">
-        <v>14.45223374065384</v>
+        <v>12.18079029139913</v>
       </c>
       <c r="L14">
-        <v>9.402236970230236</v>
+        <v>12.49151230204018</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.47014646139629</v>
+        <v>20.51576538680466</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33001469385297</v>
+        <v>15.57781312764498</v>
       </c>
       <c r="C15">
-        <v>6.752388354897776</v>
+        <v>6.943280487948329</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.954334481889591</v>
+        <v>14.29719742112084</v>
       </c>
       <c r="F15">
-        <v>32.84306978500788</v>
+        <v>41.22552511446032</v>
       </c>
       <c r="G15">
-        <v>33.44813556893065</v>
+        <v>42.01623877850556</v>
       </c>
       <c r="H15">
-        <v>11.01114915827584</v>
+        <v>17.51642247308213</v>
       </c>
       <c r="I15">
-        <v>17.92793621059074</v>
+        <v>27.62083776274978</v>
       </c>
       <c r="J15">
-        <v>5.540526427413895</v>
+        <v>8.598875623878415</v>
       </c>
       <c r="K15">
-        <v>14.37334771163271</v>
+        <v>12.16191696967533</v>
       </c>
       <c r="L15">
-        <v>9.370539864353015</v>
+        <v>12.48796130192181</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.49778755442934</v>
+        <v>20.52288614608691</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.72360619495792</v>
+        <v>15.41937944337903</v>
       </c>
       <c r="C16">
-        <v>6.614622805568921</v>
+        <v>6.899771935998862</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.797361342254456</v>
+        <v>14.28615959569456</v>
       </c>
       <c r="F16">
-        <v>32.2827087423798</v>
+        <v>41.18713743022381</v>
       </c>
       <c r="G16">
-        <v>33.00815739240822</v>
+        <v>42.01897832201173</v>
       </c>
       <c r="H16">
-        <v>11.00663644509545</v>
+        <v>17.54175094490647</v>
       </c>
       <c r="I16">
-        <v>17.90746710979433</v>
+        <v>27.66279641445687</v>
       </c>
       <c r="J16">
-        <v>5.549378119378082</v>
+        <v>8.600822456402712</v>
       </c>
       <c r="K16">
-        <v>13.91397175548865</v>
+        <v>12.05382370344603</v>
       </c>
       <c r="L16">
-        <v>9.188160341046094</v>
+        <v>12.46812695644843</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.65672459989823</v>
+        <v>20.56422391775391</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.34279482267858</v>
+        <v>15.32210915239132</v>
       </c>
       <c r="C17">
-        <v>6.52907125896084</v>
+        <v>6.872755418603979</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.700989136149511</v>
+        <v>14.27988619553131</v>
       </c>
       <c r="F17">
-        <v>31.94191075458313</v>
+        <v>41.16594768108561</v>
       </c>
       <c r="G17">
-        <v>32.74683684650135</v>
+        <v>42.02360790310534</v>
       </c>
       <c r="H17">
-        <v>11.00630009748189</v>
+        <v>17.55801440206164</v>
       </c>
       <c r="I17">
-        <v>17.8994374688247</v>
+        <v>27.68982709556727</v>
       </c>
       <c r="J17">
-        <v>5.554865139923864</v>
+        <v>8.602058186417196</v>
       </c>
       <c r="K17">
-        <v>13.62559494442886</v>
+        <v>11.98759908206181</v>
       </c>
       <c r="L17">
-        <v>9.075661141405197</v>
+        <v>12.45642225465475</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.75473568583607</v>
+        <v>20.59005862256593</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.12050873792393</v>
+        <v>15.26615334136598</v>
       </c>
       <c r="C18">
-        <v>6.479483557729787</v>
+        <v>6.857098162694896</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.645546445809741</v>
+        <v>14.27646175783634</v>
       </c>
       <c r="F18">
-        <v>31.74701997150893</v>
+        <v>41.15462965298488</v>
       </c>
       <c r="G18">
-        <v>32.59966587442253</v>
+        <v>42.02735375867847</v>
       </c>
       <c r="H18">
-        <v>11.00697545869903</v>
+        <v>17.56763512422565</v>
       </c>
       <c r="I18">
-        <v>17.89643589808773</v>
+        <v>27.70584822281917</v>
       </c>
       <c r="J18">
-        <v>5.558043113531496</v>
+        <v>8.602784206474999</v>
       </c>
       <c r="K18">
-        <v>13.45730039950435</v>
+        <v>11.94955307691769</v>
       </c>
       <c r="L18">
-        <v>9.010745875765796</v>
+        <v>12.44986153126043</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.81130715332519</v>
+        <v>20.60509313123553</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.04468588185615</v>
+        <v>15.24720807542997</v>
       </c>
       <c r="C19">
-        <v>6.462628707685047</v>
+        <v>6.851776752392054</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.626773953937187</v>
+        <v>14.27533395925766</v>
       </c>
       <c r="F19">
-        <v>31.68123058136996</v>
+        <v>41.1509471688159</v>
       </c>
       <c r="G19">
-        <v>32.55037215248483</v>
+        <v>42.02880797526834</v>
       </c>
       <c r="H19">
-        <v>11.00735100499889</v>
+        <v>17.57093828045798</v>
       </c>
       <c r="I19">
-        <v>17.89569289170946</v>
+        <v>27.71135403491469</v>
       </c>
       <c r="J19">
-        <v>5.559122998792936</v>
+        <v>8.603032649475043</v>
       </c>
       <c r="K19">
-        <v>13.39990035755377</v>
+        <v>11.93668022658101</v>
       </c>
       <c r="L19">
-        <v>8.988732571035591</v>
+        <v>12.44766976559531</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.8304963456639</v>
+        <v>20.61021366316991</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.3836691272418</v>
+        <v>15.33246506588702</v>
       </c>
       <c r="C20">
-        <v>6.538217785812036</v>
+        <v>6.875643627419007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.711249712661722</v>
+        <v>14.28053500035345</v>
       </c>
       <c r="F20">
-        <v>31.97807348827192</v>
+        <v>41.16811340389025</v>
       </c>
       <c r="G20">
-        <v>32.77432998307185</v>
+        <v>42.02300296735847</v>
       </c>
       <c r="H20">
-        <v>11.00624542480326</v>
+        <v>17.55625555393254</v>
       </c>
       <c r="I20">
-        <v>17.90012384454344</v>
+        <v>27.68690058774298</v>
       </c>
       <c r="J20">
-        <v>5.554278786396312</v>
+        <v>8.601925062360044</v>
       </c>
       <c r="K20">
-        <v>13.65654407963685</v>
+        <v>11.99464447156961</v>
       </c>
       <c r="L20">
-        <v>9.087658879983515</v>
+        <v>12.45765051931281</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.74428198734918</v>
+        <v>20.58729036389348</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.48387350238376</v>
+        <v>15.61867822086843</v>
       </c>
       <c r="C21">
-        <v>6.787636360347382</v>
+        <v>6.954411701461664</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.994826822945942</v>
+        <v>14.30020039579207</v>
       </c>
       <c r="F21">
-        <v>32.98863153385613</v>
+        <v>41.23616345024799</v>
       </c>
       <c r="G21">
-        <v>33.56440397396237</v>
+        <v>42.01644361835403</v>
       </c>
       <c r="H21">
-        <v>11.01308673512441</v>
+        <v>17.51010747612489</v>
       </c>
       <c r="I21">
-        <v>17.93465921701696</v>
+        <v>27.61040414817535</v>
       </c>
       <c r="J21">
-        <v>5.538257713429386</v>
+        <v>8.598385758232912</v>
       </c>
       <c r="K21">
-        <v>14.48993296573959</v>
+        <v>12.18984121786329</v>
       </c>
       <c r="L21">
-        <v>9.417423011432904</v>
+        <v>12.49322416317989</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.45690088995638</v>
+        <v>20.51236017866488</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.17437738141301</v>
+        <v>15.80524820052495</v>
       </c>
       <c r="C22">
-        <v>6.947259613117432</v>
+        <v>7.004807729705345</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.17973880735651</v>
+        <v>14.31467135534104</v>
       </c>
       <c r="F22">
-        <v>33.65836362222254</v>
+        <v>41.28832664451932</v>
       </c>
       <c r="G22">
-        <v>34.10915292465748</v>
+        <v>42.02181273168834</v>
       </c>
       <c r="H22">
-        <v>11.0258304897242</v>
+        <v>17.48232188473697</v>
       </c>
       <c r="I22">
-        <v>17.97263221668658</v>
+        <v>27.56463730643704</v>
       </c>
       <c r="J22">
-        <v>5.527958368299935</v>
+        <v>8.596207615703239</v>
       </c>
       <c r="K22">
-        <v>15.01331664329348</v>
+        <v>12.31754435865801</v>
       </c>
       <c r="L22">
-        <v>9.630732232068882</v>
+        <v>12.51797160719933</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.27060000928564</v>
+        <v>20.46493966741555</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.80843263743754</v>
+        <v>15.70573637509996</v>
       </c>
       <c r="C23">
-        <v>6.862374427948343</v>
+        <v>6.978011082655907</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.081100830355</v>
+        <v>14.30680078131244</v>
       </c>
       <c r="F23">
-        <v>33.30010062762719</v>
+        <v>41.25978564596676</v>
       </c>
       <c r="G23">
-        <v>33.81579046585468</v>
+        <v>42.01806329055312</v>
       </c>
       <c r="H23">
-        <v>11.01824555807184</v>
+        <v>17.49693416306644</v>
       </c>
       <c r="I23">
-        <v>17.95090690129819</v>
+        <v>27.5886766475293</v>
       </c>
       <c r="J23">
-        <v>5.533440891768099</v>
+        <v>8.597357822570569</v>
       </c>
       <c r="K23">
-        <v>14.73590747735351</v>
+        <v>12.24938758636231</v>
       </c>
       <c r="L23">
-        <v>9.517102970746279</v>
+        <v>12.50462782704808</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.36990557264011</v>
+        <v>20.49010739651247</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.36520030125109</v>
+        <v>15.32778325810436</v>
       </c>
       <c r="C24">
-        <v>6.534083896131262</v>
+        <v>6.874338257547614</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.706611017725544</v>
+        <v>14.28024110789499</v>
       </c>
       <c r="F24">
-        <v>31.96172107276735</v>
+        <v>41.1671315879473</v>
       </c>
       <c r="G24">
-        <v>32.76189079266369</v>
+        <v>42.02327308155861</v>
       </c>
       <c r="H24">
-        <v>11.00626744229784</v>
+        <v>17.55704988613548</v>
       </c>
       <c r="I24">
-        <v>17.89980851548588</v>
+        <v>27.68822216424612</v>
       </c>
       <c r="J24">
-        <v>5.554543803639594</v>
+        <v>8.60198519919305</v>
       </c>
       <c r="K24">
-        <v>13.64255977513164</v>
+        <v>11.99145916257701</v>
       </c>
       <c r="L24">
-        <v>9.082235439513898</v>
+        <v>12.45709469579467</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.74900740535304</v>
+        <v>20.58854132724777</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.76178594181029</v>
+        <v>14.92003170859306</v>
       </c>
       <c r="C25">
-        <v>6.165454291132983</v>
+        <v>6.758016259881093</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.302431604144482</v>
+        <v>14.25863053140201</v>
       </c>
       <c r="F25">
-        <v>30.56171094781388</v>
+        <v>41.10046183095333</v>
       </c>
       <c r="G25">
-        <v>31.74449445753931</v>
+        <v>42.07027989193582</v>
       </c>
       <c r="H25">
-        <v>11.02626789858112</v>
+        <v>17.6320782840056</v>
       </c>
       <c r="I25">
-        <v>17.90593566481493</v>
+        <v>27.81370649447678</v>
       </c>
       <c r="J25">
-        <v>5.578158916564727</v>
+        <v>8.607560569997975</v>
       </c>
       <c r="K25">
-        <v>12.37021935813244</v>
+        <v>11.71511120317633</v>
       </c>
       <c r="L25">
-        <v>8.605459307992824</v>
+        <v>12.41239437535366</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.16562971304861</v>
+        <v>20.70141682264604</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.62197818638615</v>
+        <v>14.54921039674769</v>
       </c>
       <c r="C2">
-        <v>6.668666515371771</v>
+        <v>5.881742563540341</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.24885395091472</v>
+        <v>9.006500726267003</v>
       </c>
       <c r="F2">
-        <v>41.08018402194973</v>
+        <v>29.57284548666939</v>
       </c>
       <c r="G2">
-        <v>42.14033072464268</v>
+        <v>31.09445814470656</v>
       </c>
       <c r="H2">
-        <v>17.69607241463209</v>
+        <v>11.06653699488386</v>
       </c>
       <c r="I2">
-        <v>27.92163377542688</v>
+        <v>17.95782785916327</v>
       </c>
       <c r="J2">
-        <v>8.612173447054335</v>
+        <v>5.596398190334405</v>
       </c>
       <c r="K2">
-        <v>11.51466277271392</v>
+        <v>11.35166313862798</v>
       </c>
       <c r="L2">
-        <v>12.38526435680083</v>
+        <v>8.25004023568583</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.79034900346628</v>
+        <v>13.4802802449581</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.42250144070761</v>
+        <v>13.67769577321212</v>
       </c>
       <c r="C3">
-        <v>6.60589082936156</v>
+        <v>5.682042315714017</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.24609221230732</v>
+        <v>8.808029771518285</v>
       </c>
       <c r="F3">
-        <v>41.08447669867266</v>
+        <v>28.93123862638455</v>
       </c>
       <c r="G3">
-        <v>42.20980034299974</v>
+        <v>30.71337905321044</v>
       </c>
       <c r="H3">
-        <v>17.7448965137716</v>
+        <v>11.10843054763332</v>
       </c>
       <c r="I3">
-        <v>28.00444543028237</v>
+        <v>18.01996877244578</v>
       </c>
       <c r="J3">
-        <v>8.615619158639131</v>
+        <v>5.60934306584877</v>
       </c>
       <c r="K3">
-        <v>11.38142939262293</v>
+        <v>10.60962094128626</v>
       </c>
       <c r="L3">
-        <v>12.37054441348269</v>
+        <v>8.007800737744072</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.85428197250905</v>
+        <v>13.69903309251825</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.30165741991432</v>
+        <v>13.1188669938037</v>
       </c>
       <c r="C4">
-        <v>6.566280698436031</v>
+        <v>5.555887808143221</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.24631360354817</v>
+        <v>8.687568853103599</v>
       </c>
       <c r="F4">
-        <v>41.09602000046888</v>
+        <v>28.55216725118042</v>
       </c>
       <c r="G4">
-        <v>42.26325840878285</v>
+        <v>30.50776283693144</v>
       </c>
       <c r="H4">
-        <v>17.77756375042323</v>
+        <v>11.14093264250354</v>
       </c>
       <c r="I4">
-        <v>28.06005358345505</v>
+        <v>18.07059629080608</v>
       </c>
       <c r="J4">
-        <v>8.617893374407734</v>
+        <v>5.617595098298202</v>
       </c>
       <c r="K4">
-        <v>11.30115439261113</v>
+        <v>10.12826124962798</v>
       </c>
       <c r="L4">
-        <v>12.36333272182989</v>
+        <v>7.858904291705236</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.89535373743827</v>
+        <v>13.83624748191776</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.25288352610617</v>
+        <v>12.88534110818119</v>
       </c>
       <c r="C5">
-        <v>6.549876193732726</v>
+        <v>5.503613362335767</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.24688756688911</v>
+        <v>8.638890550770814</v>
       </c>
       <c r="F5">
-        <v>41.10296508661078</v>
+        <v>28.40154952828129</v>
       </c>
       <c r="G5">
-        <v>42.28775221370141</v>
+        <v>30.43094423924264</v>
       </c>
       <c r="H5">
-        <v>17.79155184797261</v>
+        <v>11.15582126491574</v>
       </c>
       <c r="I5">
-        <v>28.08391050590268</v>
+        <v>18.094243270352</v>
       </c>
       <c r="J5">
-        <v>8.618860137065939</v>
+        <v>5.621036434725172</v>
       </c>
       <c r="K5">
-        <v>11.26886304685481</v>
+        <v>9.925604705216415</v>
       </c>
       <c r="L5">
-        <v>12.36085580775575</v>
+        <v>7.798271063503594</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.91254897677234</v>
+        <v>13.89291750222644</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.24481484072886</v>
+        <v>12.84621974027044</v>
       </c>
       <c r="C6">
-        <v>6.547136495154901</v>
+        <v>5.494881749945307</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.24701213569437</v>
+        <v>8.630834060476413</v>
       </c>
       <c r="F6">
-        <v>41.10425368255457</v>
+        <v>28.37677571201188</v>
       </c>
       <c r="G6">
-        <v>42.29198278523762</v>
+        <v>30.41860450521381</v>
       </c>
       <c r="H6">
-        <v>17.79391537817471</v>
+        <v>11.15839104282044</v>
       </c>
       <c r="I6">
-        <v>28.08794413959259</v>
+        <v>18.09834851935378</v>
       </c>
       <c r="J6">
-        <v>8.619023087246601</v>
+        <v>5.621612671996709</v>
       </c>
       <c r="K6">
-        <v>11.26352759266139</v>
+        <v>9.89156060931383</v>
       </c>
       <c r="L6">
-        <v>12.36047248847764</v>
+        <v>7.788208105063029</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.91543194461996</v>
+        <v>13.90237376890914</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.30099765248348</v>
+        <v>13.1157408118572</v>
       </c>
       <c r="C7">
-        <v>6.566060520105771</v>
+        <v>5.555186285804456</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.24631938346064</v>
+        <v>8.686910621050291</v>
       </c>
       <c r="F7">
-        <v>41.09610458948852</v>
+        <v>28.55012020526192</v>
       </c>
       <c r="G7">
-        <v>42.26357778187889</v>
+        <v>30.50669883539121</v>
       </c>
       <c r="H7">
-        <v>17.77774966232123</v>
+        <v>11.14112685928158</v>
       </c>
       <c r="I7">
-        <v>28.06037048467331</v>
+        <v>18.07090314810485</v>
       </c>
       <c r="J7">
-        <v>8.61790625036514</v>
+        <v>5.617641188484749</v>
       </c>
       <c r="K7">
-        <v>11.30071714656846</v>
+        <v>10.12555449477798</v>
       </c>
       <c r="L7">
-        <v>12.3632974437436</v>
+        <v>7.858086281797069</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.89558378159402</v>
+        <v>13.83700866823447</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.55289517472322</v>
+        <v>14.2537206081622</v>
       </c>
       <c r="C8">
-        <v>6.647245532635919</v>
+        <v>5.81363325841844</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.24750485541748</v>
+        <v>8.937811801339199</v>
       </c>
       <c r="F8">
-        <v>41.07981642682634</v>
+        <v>29.34860353682838</v>
       </c>
       <c r="G8">
-        <v>42.16203743164962</v>
+        <v>30.95708356034088</v>
       </c>
       <c r="H8">
-        <v>17.71234870834529</v>
+        <v>11.07953758811872</v>
       </c>
       <c r="I8">
-        <v>27.94919830653723</v>
+        <v>17.97659188214597</v>
       </c>
       <c r="J8">
-        <v>8.613328706453684</v>
+        <v>5.600799872817517</v>
       </c>
       <c r="K8">
-        <v>11.46842824789417</v>
+        <v>11.10113297959709</v>
       </c>
       <c r="L8">
-        <v>12.37981150532107</v>
+        <v>8.16659806319049</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.81201685750911</v>
+        <v>13.55511990723921</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05719850196868</v>
+        <v>16.2918333547995</v>
       </c>
       <c r="C9">
-        <v>6.797785888345071</v>
+        <v>6.291558772265122</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.26496229142338</v>
+        <v>9.438453755408558</v>
       </c>
       <c r="F9">
-        <v>41.11845519372195</v>
+        <v>31.02710066985345</v>
       </c>
       <c r="G9">
-        <v>42.04892794052617</v>
+        <v>32.07154717689335</v>
       </c>
       <c r="H9">
-        <v>17.60544492264519</v>
+        <v>11.01538132254952</v>
       </c>
       <c r="I9">
-        <v>27.7690211000544</v>
+        <v>17.89616196027907</v>
       </c>
       <c r="J9">
-        <v>8.605603990758533</v>
+        <v>5.570079318688079</v>
       </c>
       <c r="K9">
-        <v>11.8078255885156</v>
+        <v>12.81139536990986</v>
       </c>
       <c r="L9">
-        <v>12.42656185991925</v>
+        <v>8.766906089176601</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.66249414761538</v>
+        <v>13.02414523977266</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.43047608458542</v>
+        <v>17.76661998111941</v>
       </c>
       <c r="C10">
-        <v>6.902838598842028</v>
+        <v>6.624333203961319</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.28690028563671</v>
+        <v>9.808355335203176</v>
       </c>
       <c r="F10">
-        <v>41.18967300508471</v>
+        <v>32.32174614588513</v>
       </c>
       <c r="G10">
-        <v>42.01859686508089</v>
+        <v>33.03840226979398</v>
       </c>
       <c r="H10">
-        <v>17.53993127961636</v>
+        <v>11.00679435120864</v>
       </c>
       <c r="I10">
-        <v>27.65977625738174</v>
+        <v>17.90860583082838</v>
       </c>
       <c r="J10">
-        <v>8.60068351583671</v>
+        <v>5.54875491167106</v>
       </c>
       <c r="K10">
-        <v>12.06138552527485</v>
+        <v>13.94654967850649</v>
       </c>
       <c r="L10">
-        <v>12.46948568780927</v>
+        <v>9.200967714226586</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.56129969232529</v>
+        <v>12.64556688599046</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.60015404594304</v>
+        <v>18.41425233963293</v>
       </c>
       <c r="C11">
-        <v>6.949370294570747</v>
+        <v>6.77167204585868</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.29883147062403</v>
+        <v>9.976471308257533</v>
       </c>
       <c r="F11">
-        <v>41.23130482848281</v>
+        <v>32.92259701672108</v>
       </c>
       <c r="G11">
-        <v>42.01630597515596</v>
+        <v>33.51156076992189</v>
       </c>
       <c r="H11">
-        <v>17.51295942821999</v>
+        <v>11.01216977347408</v>
       </c>
       <c r="I11">
-        <v>27.61511472023393</v>
+        <v>17.93153951259382</v>
       </c>
       <c r="J11">
-        <v>8.598607217893555</v>
+        <v>5.539285470217665</v>
       </c>
       <c r="K11">
-        <v>12.17718098229851</v>
+        <v>14.43717649946357</v>
       </c>
       <c r="L11">
-        <v>12.4908312590713</v>
+        <v>9.396178473903564</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.51712503956091</v>
+        <v>12.47543028874148</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66432847599805</v>
+        <v>18.65459425762397</v>
       </c>
       <c r="C12">
-        <v>6.966805315208561</v>
+        <v>6.826884590082425</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.30362746077517</v>
+        <v>10.04006397983181</v>
       </c>
       <c r="F12">
-        <v>41.24838976016871</v>
+        <v>33.15172465818622</v>
       </c>
       <c r="G12">
-        <v>42.01709507871148</v>
+        <v>33.69560138170694</v>
       </c>
       <c r="H12">
-        <v>17.50315318197936</v>
+        <v>11.01561808967442</v>
       </c>
       <c r="I12">
-        <v>27.59892763583318</v>
+        <v>17.94285445224642</v>
       </c>
       <c r="J12">
-        <v>8.597844139919486</v>
+        <v>5.535729316668671</v>
       </c>
       <c r="K12">
-        <v>12.22105567503185</v>
+        <v>14.61931036312278</v>
       </c>
       <c r="L12">
-        <v>12.4991717338001</v>
+        <v>9.469724604088563</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.50066319465375</v>
+        <v>12.41126700167627</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65051182000977</v>
+        <v>18.60304933027544</v>
       </c>
       <c r="C13">
-        <v>6.963058696488265</v>
+        <v>6.815019398040138</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.30258224343864</v>
+        <v>10.02637194087538</v>
       </c>
       <c r="F13">
-        <v>41.2446516546607</v>
+        <v>33.10230850700151</v>
       </c>
       <c r="G13">
-        <v>42.01685143519187</v>
+        <v>33.65574746862739</v>
       </c>
       <c r="H13">
-        <v>17.50524700731764</v>
+        <v>11.01481133181161</v>
       </c>
       <c r="I13">
-        <v>27.60238153708353</v>
+        <v>17.94029822494856</v>
       </c>
       <c r="J13">
-        <v>8.598007453972588</v>
+        <v>5.536493935702119</v>
       </c>
       <c r="K13">
-        <v>12.21160595912598</v>
+        <v>14.58024636226913</v>
       </c>
       <c r="L13">
-        <v>12.49736408689625</v>
+        <v>9.453902614931447</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.50419673019097</v>
+        <v>12.42507457115343</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.60543563738419</v>
+        <v>18.43412329573387</v>
       </c>
       <c r="C14">
-        <v>6.950808428930991</v>
+        <v>6.77622605415366</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.29922048605809</v>
+        <v>9.981704756601339</v>
       </c>
       <c r="F14">
-        <v>41.23268401462492</v>
+        <v>32.94141605784207</v>
       </c>
       <c r="G14">
-        <v>42.01633768749965</v>
+        <v>33.52660399868932</v>
       </c>
       <c r="H14">
-        <v>17.51214449533324</v>
+        <v>11.01242469908919</v>
       </c>
       <c r="I14">
-        <v>27.61376845620664</v>
+        <v>17.93241683213477</v>
       </c>
       <c r="J14">
-        <v>8.598543975382146</v>
+        <v>5.53899232902175</v>
       </c>
       <c r="K14">
-        <v>12.18079029139913</v>
+        <v>14.45223374065381</v>
       </c>
       <c r="L14">
-        <v>12.49151230204018</v>
+        <v>9.402236970230268</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.51576538680466</v>
+        <v>12.47014646139632</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.57781312764498</v>
+        <v>18.33001469385305</v>
       </c>
       <c r="C15">
-        <v>6.943280487948329</v>
+        <v>6.752388354897781</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.29719742112084</v>
+        <v>9.954334481889589</v>
       </c>
       <c r="F15">
-        <v>41.22552511446032</v>
+        <v>32.84306978500785</v>
       </c>
       <c r="G15">
-        <v>42.01623877850556</v>
+        <v>33.44813556893052</v>
       </c>
       <c r="H15">
-        <v>17.51642247308213</v>
+        <v>11.01114915827571</v>
       </c>
       <c r="I15">
-        <v>27.62083776274978</v>
+        <v>17.92793621059058</v>
       </c>
       <c r="J15">
-        <v>8.598875623878415</v>
+        <v>5.54052642741376</v>
       </c>
       <c r="K15">
-        <v>12.16191696967533</v>
+        <v>14.37334771163278</v>
       </c>
       <c r="L15">
-        <v>12.48796130192181</v>
+        <v>9.370539864353002</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.52288614608691</v>
+        <v>12.49778755442924</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.41937944337903</v>
+        <v>17.72360619495787</v>
       </c>
       <c r="C16">
-        <v>6.899771935998862</v>
+        <v>6.614622805569121</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.28615959569456</v>
+        <v>9.797361342254453</v>
       </c>
       <c r="F16">
-        <v>41.18713743022381</v>
+        <v>32.28270874237986</v>
       </c>
       <c r="G16">
-        <v>42.01897832201173</v>
+        <v>33.00815739240829</v>
       </c>
       <c r="H16">
-        <v>17.54175094490647</v>
+        <v>11.00663644509549</v>
       </c>
       <c r="I16">
-        <v>27.66279641445687</v>
+        <v>17.90746710979446</v>
       </c>
       <c r="J16">
-        <v>8.600822456402712</v>
+        <v>5.54937811937815</v>
       </c>
       <c r="K16">
-        <v>12.05382370344603</v>
+        <v>13.91397175548862</v>
       </c>
       <c r="L16">
-        <v>12.46812695644843</v>
+        <v>9.188160341046087</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.56422391775391</v>
+        <v>12.65672459989826</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.32210915239132</v>
+        <v>17.34279482267863</v>
       </c>
       <c r="C17">
-        <v>6.872755418603979</v>
+        <v>6.529071258960833</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.27988619553131</v>
+        <v>9.700989136149589</v>
       </c>
       <c r="F17">
-        <v>41.16594768108561</v>
+        <v>31.94191075458305</v>
       </c>
       <c r="G17">
-        <v>42.02360790310534</v>
+        <v>32.74683684650107</v>
       </c>
       <c r="H17">
-        <v>17.55801440206164</v>
+        <v>11.00630009748174</v>
       </c>
       <c r="I17">
-        <v>27.68982709556727</v>
+        <v>17.89943746882452</v>
       </c>
       <c r="J17">
-        <v>8.602058186417196</v>
+        <v>5.554865139923729</v>
       </c>
       <c r="K17">
-        <v>11.98759908206181</v>
+        <v>13.6255949444289</v>
       </c>
       <c r="L17">
-        <v>12.45642225465475</v>
+        <v>9.07566114140521</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.59005862256593</v>
+        <v>12.75473568583591</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.26615334136598</v>
+        <v>17.12050873792398</v>
       </c>
       <c r="C18">
-        <v>6.857098162694896</v>
+        <v>6.479483557729663</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.27646175783634</v>
+        <v>9.645546445809758</v>
       </c>
       <c r="F18">
-        <v>41.15462965298488</v>
+        <v>31.74701997150888</v>
       </c>
       <c r="G18">
-        <v>42.02735375867847</v>
+        <v>32.59966587442247</v>
       </c>
       <c r="H18">
-        <v>17.56763512422565</v>
+        <v>11.00697545869899</v>
       </c>
       <c r="I18">
-        <v>27.70584822281917</v>
+        <v>17.89643589808765</v>
       </c>
       <c r="J18">
-        <v>8.602784206474999</v>
+        <v>5.558043113531564</v>
       </c>
       <c r="K18">
-        <v>11.94955307691769</v>
+        <v>13.45730039950441</v>
       </c>
       <c r="L18">
-        <v>12.44986153126043</v>
+        <v>9.010745875765814</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.60509313123553</v>
+        <v>12.81130715332513</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.24720807542997</v>
+        <v>17.04468588185618</v>
       </c>
       <c r="C19">
-        <v>6.851776752392054</v>
+        <v>6.462628707685254</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.27533395925766</v>
+        <v>9.626773953937178</v>
       </c>
       <c r="F19">
-        <v>41.1509471688159</v>
+        <v>31.68123058137001</v>
       </c>
       <c r="G19">
-        <v>42.02880797526834</v>
+        <v>32.55037215248488</v>
       </c>
       <c r="H19">
-        <v>17.57093828045798</v>
+        <v>11.00735100499891</v>
       </c>
       <c r="I19">
-        <v>27.71135403491469</v>
+        <v>17.8956928917095</v>
       </c>
       <c r="J19">
-        <v>8.603032649475043</v>
+        <v>5.559122998792935</v>
       </c>
       <c r="K19">
-        <v>11.93668022658101</v>
+        <v>13.39990035755379</v>
       </c>
       <c r="L19">
-        <v>12.44766976559531</v>
+        <v>8.988732571035534</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.61021366316991</v>
+        <v>12.83049634566391</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.33246506588702</v>
+        <v>17.38366912724179</v>
       </c>
       <c r="C20">
-        <v>6.875643627419007</v>
+        <v>6.538217785811919</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.28053500035345</v>
+        <v>9.711249712661722</v>
       </c>
       <c r="F20">
-        <v>41.16811340389025</v>
+        <v>31.97807348827202</v>
       </c>
       <c r="G20">
-        <v>42.02300296735847</v>
+        <v>32.77432998307206</v>
       </c>
       <c r="H20">
-        <v>17.55625555393254</v>
+        <v>11.00624542480332</v>
       </c>
       <c r="I20">
-        <v>27.68690058774298</v>
+        <v>17.90012384454358</v>
       </c>
       <c r="J20">
-        <v>8.601925062360044</v>
+        <v>5.55427878639631</v>
       </c>
       <c r="K20">
-        <v>11.99464447156961</v>
+        <v>13.6565440796368</v>
       </c>
       <c r="L20">
-        <v>12.45765051931281</v>
+        <v>9.087658879983495</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.58729036389348</v>
+        <v>12.74428198734928</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61867822086843</v>
+        <v>18.48387350238375</v>
       </c>
       <c r="C21">
-        <v>6.954411701461664</v>
+        <v>6.787636360347249</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.30020039579207</v>
+        <v>9.994826822945917</v>
       </c>
       <c r="F21">
-        <v>41.23616345024799</v>
+        <v>32.98863153385618</v>
       </c>
       <c r="G21">
-        <v>42.01644361835403</v>
+        <v>33.56440397396253</v>
       </c>
       <c r="H21">
-        <v>17.51010747612489</v>
+        <v>11.01308673512441</v>
       </c>
       <c r="I21">
-        <v>27.61040414817535</v>
+        <v>17.93465921701705</v>
       </c>
       <c r="J21">
-        <v>8.598385758232912</v>
+        <v>5.538257713429487</v>
       </c>
       <c r="K21">
-        <v>12.18984121786329</v>
+        <v>14.48993296573954</v>
       </c>
       <c r="L21">
-        <v>12.49322416317989</v>
+        <v>9.41742301143289</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.51236017866488</v>
+        <v>12.45690088995642</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.80524820052495</v>
+        <v>19.17437738141304</v>
       </c>
       <c r="C22">
-        <v>7.004807729705345</v>
+        <v>6.947259613117199</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.31467135534104</v>
+        <v>10.17973880735645</v>
       </c>
       <c r="F22">
-        <v>41.28832664451932</v>
+        <v>33.65836362222252</v>
       </c>
       <c r="G22">
-        <v>42.02181273168834</v>
+        <v>34.10915292465755</v>
       </c>
       <c r="H22">
-        <v>17.48232188473697</v>
+        <v>11.02583048972421</v>
       </c>
       <c r="I22">
-        <v>27.56463730643704</v>
+        <v>17.97263221668657</v>
       </c>
       <c r="J22">
-        <v>8.596207615703239</v>
+        <v>5.527958368299967</v>
       </c>
       <c r="K22">
-        <v>12.31754435865801</v>
+        <v>15.01331664329348</v>
       </c>
       <c r="L22">
-        <v>12.51797160719933</v>
+        <v>9.630732232068855</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.46493966741555</v>
+        <v>12.27060000928564</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.70573637509996</v>
+        <v>18.80843263743753</v>
       </c>
       <c r="C23">
-        <v>6.978011082655907</v>
+        <v>6.862374427948225</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.30680078131244</v>
+        <v>10.08110083035499</v>
       </c>
       <c r="F23">
-        <v>41.25978564596676</v>
+        <v>33.30010062762725</v>
       </c>
       <c r="G23">
-        <v>42.01806329055312</v>
+        <v>33.81579046585489</v>
       </c>
       <c r="H23">
-        <v>17.49693416306644</v>
+        <v>11.01824555807186</v>
       </c>
       <c r="I23">
-        <v>27.5886766475293</v>
+        <v>17.95090690129827</v>
       </c>
       <c r="J23">
-        <v>8.597357822570569</v>
+        <v>5.53344089176813</v>
       </c>
       <c r="K23">
-        <v>12.24938758636231</v>
+        <v>14.7359074773535</v>
       </c>
       <c r="L23">
-        <v>12.50462782704808</v>
+        <v>9.517102970746285</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.49010739651247</v>
+        <v>12.36990557264015</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32778325810436</v>
+        <v>17.36520030125113</v>
       </c>
       <c r="C24">
-        <v>6.874338257547614</v>
+        <v>6.534083896131253</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.28024110789499</v>
+        <v>9.706611017725661</v>
       </c>
       <c r="F24">
-        <v>41.1671315879473</v>
+        <v>31.96172107276733</v>
       </c>
       <c r="G24">
-        <v>42.02327308155861</v>
+        <v>32.76189079266349</v>
       </c>
       <c r="H24">
-        <v>17.55704988613548</v>
+        <v>11.00626744229776</v>
       </c>
       <c r="I24">
-        <v>27.68822216424612</v>
+        <v>17.89980851548575</v>
       </c>
       <c r="J24">
-        <v>8.60198519919305</v>
+        <v>5.554543803639661</v>
       </c>
       <c r="K24">
-        <v>11.99145916257701</v>
+        <v>13.64255977513168</v>
       </c>
       <c r="L24">
-        <v>12.45709469579467</v>
+        <v>9.082235439513973</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.58854132724777</v>
+        <v>12.74900740535288</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.92003170859306</v>
+        <v>15.7617859418103</v>
       </c>
       <c r="C25">
-        <v>6.758016259881093</v>
+        <v>6.165454291132873</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.25863053140201</v>
+        <v>9.302431604144404</v>
       </c>
       <c r="F25">
-        <v>41.10046183095333</v>
+        <v>30.56171094781389</v>
       </c>
       <c r="G25">
-        <v>42.07027989193582</v>
+        <v>31.74449445753925</v>
       </c>
       <c r="H25">
-        <v>17.6320782840056</v>
+        <v>11.02626789858119</v>
       </c>
       <c r="I25">
-        <v>27.81370649447678</v>
+        <v>17.90593566481493</v>
       </c>
       <c r="J25">
-        <v>8.607560569997975</v>
+        <v>5.57815891656466</v>
       </c>
       <c r="K25">
-        <v>11.71511120317633</v>
+        <v>12.37021935813245</v>
       </c>
       <c r="L25">
-        <v>12.41239437535366</v>
+        <v>8.605459307992795</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.70141682264604</v>
+        <v>13.16562971304864</v>
       </c>
       <c r="O25">
         <v>0</v>
